--- a/config_sig.xlsx
+++ b/config_sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenichi\Dropbox\gitdir\check_Yometenai_Singo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA33CF06-A77A-48B3-96C1-E6206CF2844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471DA127-03CF-49F6-9210-A156799EE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,177 +64,422 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>srv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="138">
+  <si>
+    <t>xfel_mag_ema</t>
+  </si>
+  <si>
+    <t>xfel_mag_master</t>
+  </si>
+  <si>
+    <t>xfel_mag_ps_b</t>
+  </si>
+  <si>
+    <t>xfel_mag_ps_kicker</t>
+  </si>
+  <si>
+    <t>xfel_mag_ps_ml</t>
+  </si>
+  <si>
+    <t>xfel_mag_ps_q</t>
+  </si>
+  <si>
+    <t>xfel_mag_ps_st</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5508</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5630</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5267</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5584</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5265</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5264</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5266</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>xfel_safety_intlk</t>
+  </si>
+  <si>
+    <t>xfel_safety_intlk_gun</t>
+  </si>
+  <si>
+    <t>xfel_safety_intlk_sp8</t>
+  </si>
+  <si>
+    <t>xfel_safety_intlk_xsbt</t>
+  </si>
+  <si>
+    <t>xfel_safety_oper</t>
+  </si>
+  <si>
+    <t>xfel_safety_oper_scss</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>xfel_safety_poller</t>
+  </si>
+  <si>
+    <t>xfel_safety_radmon</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5024</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5523</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5522</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5524</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5357</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5585</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5022</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5023</t>
+  </si>
+  <si>
+    <t>xfel_safety_bl_1</t>
+  </si>
+  <si>
+    <t>xfel_safety_bl_2</t>
+  </si>
+  <si>
+    <t>xfel_safety_bl_3</t>
+  </si>
+  <si>
+    <t>xfel_safety_bl_EH5</t>
+  </si>
+  <si>
+    <t>xfel_safety_bl_oh1</t>
+  </si>
+  <si>
+    <t>xfel_safety_bl_oh2</t>
+  </si>
+  <si>
+    <t>xfel_safety_bl_poller</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5521</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5583</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5362</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5512</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5365</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5364</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5363</t>
+  </si>
+  <si>
+    <t>xfel_mon_blm</t>
+  </si>
+  <si>
+    <t>xfel_mon_bpm</t>
+  </si>
+  <si>
+    <t>bl3</t>
+  </si>
+  <si>
+    <t>xfel_mon_csr</t>
+  </si>
+  <si>
+    <t>xfel_mon_ct</t>
+  </si>
+  <si>
+    <t>xfel_mon_ctr</t>
+  </si>
+  <si>
+    <t>xfel_mon_fd_cup</t>
+  </si>
+  <si>
+    <t>xfel_mon_hm</t>
+  </si>
+  <si>
+    <t>xfel_mon_intrreg</t>
+  </si>
+  <si>
+    <t>xfel_mon_lsu</t>
+  </si>
+  <si>
+    <t>xfel_mon_mlstage</t>
+  </si>
+  <si>
+    <t>xfel_mon_msbpm</t>
+  </si>
+  <si>
+    <t>xfel_mon_plc</t>
+  </si>
+  <si>
+    <t>xfel_mon_poller</t>
+  </si>
+  <si>
+    <t>xfel_mon_qstage</t>
+  </si>
+  <si>
+    <t>xfel_mon_scm</t>
+  </si>
+  <si>
+    <t>xfel_mon_shmdaq</t>
+  </si>
+  <si>
+    <t>xfel_mon_slit</t>
+  </si>
+  <si>
+    <t>xfel_mon_spoiler</t>
+  </si>
+  <si>
+    <t>xfel_mon_streak</t>
+  </si>
+  <si>
+    <t>xfel_mon_timing</t>
+  </si>
+  <si>
+    <t>xfel_mon_xsbt</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5535</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5347</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5505</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5348</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5381</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5519</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5385</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5506</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5384</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5379</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5380</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5351</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5352</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5383</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5349</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5507</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5350</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5631</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5593</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5382</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5532</t>
+  </si>
+  <si>
+    <t>xfel_devintlk_bl_1</t>
+  </si>
+  <si>
+    <t>xfel_devintlk_bl_2</t>
+  </si>
+  <si>
+    <t>xfel_devintlk_bl_3</t>
+  </si>
+  <si>
+    <t>xfel_devintlk_bl_EH5</t>
+  </si>
+  <si>
+    <t>xfel_devintlk_bl_poller</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5513</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5582</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5358</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5514</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5359</t>
+  </si>
+  <si>
+    <t>xfel_env_acc</t>
+  </si>
+  <si>
+    <t>xfel_env_ground</t>
+  </si>
+  <si>
+    <t>xfel_env_id</t>
+  </si>
+  <si>
+    <t>xfel_env_ofd</t>
+  </si>
+  <si>
+    <t>xfel_env_poller</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5375</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5377</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5376</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5511</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5378</t>
+  </si>
+  <si>
+    <t>xfel_facil_elec</t>
+  </si>
+  <si>
+    <t>xfel_facil_machine</t>
+  </si>
+  <si>
+    <t>xfel_facil_poller</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5001&amp;sub_grp_id=5001</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5001&amp;sub_grp_id=5002</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5001&amp;sub_grp_id=5003</t>
+  </si>
+  <si>
+    <t>xfel_id</t>
+  </si>
+  <si>
+    <t>xfel_id_au</t>
+  </si>
+  <si>
+    <t>xfel_id_bl1</t>
+  </si>
+  <si>
+    <t>xfel_id_bl1_temp</t>
+  </si>
+  <si>
+    <t>xfel_id_bl2</t>
+  </si>
+  <si>
+    <t>xfel_id_bl2_temp</t>
+  </si>
+  <si>
+    <t>xfel_id_bl3</t>
+  </si>
+  <si>
+    <t>xfel_id_bl3_temp</t>
+  </si>
+  <si>
+    <t>xfel_id_poller</t>
+  </si>
+  <si>
+    <t>xfel_id_temp</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5611</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5373</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5586</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5590</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5537</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5538</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5371</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5374</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5372</t>
+  </si>
+  <si>
+    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5612</t>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sname</t>
+    <t>url</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>graph</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>linestyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>solid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>linewidth</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ax</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>y_range</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fcolor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>black</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rave</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>calc-sigma</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>snow</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sound</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>marker</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sr_safety_topup_intlk_beam_sr_dcct2/charge_diff</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5014&amp;sub_grp_id=5490</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5375</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_devintlk</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_devintlk_bl_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_devintlk_bl_3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5582</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5358</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5514</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5359</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_devintlk_bl_EH5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_devintlk_bl_poller</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5511</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_env_acc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_env_ofd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_facil_poller</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5001&amp;sub_grp_id=5003</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_id_bl2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5537</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_id_bl3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5371</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xfel_llrf_poller</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5003&amp;sub_grp_id=5013</t>
+    <t>group</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -265,12 +510,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -285,16 +524,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFE8E6E3"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF181A1B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -329,29 +581,123 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF6A6357"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6A6357"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6A6357"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6A6357"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6A6357"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6A6357"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6A6357"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6A6357"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF6A6357"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6A6357"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6A6357"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6A6357"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF6A6357"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color rgb="FF6A6357"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF6A6357"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6A6357"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6A6357"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6A6357"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6A6357"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF6A6357"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF6A6357"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF6A6357"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF6A6357"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF6A6357"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -670,10 +1016,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -683,196 +1029,798 @@
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>1000000000</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
+      <c r="B23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A58" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FF313910-B075-4FB1-A960-AEDD50269BEE}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{FD8DBED2-26EE-4F17-A39D-2005D48FEC21}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{9489488B-3ED1-4571-BF08-47B520601E26}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{B24DEAEA-486A-4A11-AC95-FEAB8B7D3C49}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{7A4405B5-65D2-41D0-A14E-E1A54B62BEA3}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{9D014E73-7B66-48ED-9B30-AF1AE841E47A}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{9A40AC81-D21D-4747-9C0C-D744448F9DB5}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{211A34BA-3B06-4559-B67B-7189988A4205}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{1DB8CEB9-2F4B-449D-B155-48614C552152}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{A3ACC406-3DD3-41C4-82A6-7C4643DE6B07}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{194D501A-BD32-45C7-8486-B62E87C4D6B3}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5508" xr:uid="{6C878A9D-20EC-44FA-A952-4C86AA4199D0}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5630" xr:uid="{02738DCD-088F-4719-9ACF-27F52D61385D}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5267" xr:uid="{24D58126-1678-4BCC-80A9-4754D0585580}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5584" xr:uid="{434FAE9D-1382-4EE3-9756-2878BA5A6777}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5265" xr:uid="{2820F154-560E-4786-ACE0-ACB7203C72C1}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5264" xr:uid="{0EBB1426-F36A-455D-BA55-86E2B1749D98}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5007&amp;sub_grp_id=5266" xr:uid="{9B08C8F0-DBC0-4812-82DD-1948A5744222}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5024" xr:uid="{30DC025F-AA4C-482B-822D-5A46036320AC}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5523" xr:uid="{850ED33D-F652-467F-A359-1001505E4695}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5522" xr:uid="{CDF5EDBE-C736-4D23-8551-E5EAFF4BCC31}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5524" xr:uid="{D1822DBA-9A81-4BC9-A42E-9629CD662170}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5357" xr:uid="{0391B09F-AF7A-4281-AD2B-9F91EEB19F47}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5585" xr:uid="{F2C5D81E-09C3-464C-88A5-B228024D98F8}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5022" xr:uid="{0CF25B9D-B344-498A-82C3-D8F76C7483F4}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5006&amp;sub_grp_id=5023" xr:uid="{68E56007-0A60-4A3B-A0D5-1536814F731B}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5521" xr:uid="{EF2478F1-E235-49C2-B65D-F7CD07ACC6DA}"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5583" xr:uid="{A55E874E-507B-4C5E-A07B-BEFEF3FD7384}"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5362" xr:uid="{091A65D1-1A51-45B0-B956-7286F5081319}"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5512" xr:uid="{718E399B-FF6E-422C-A995-E0C5861788F6}"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5365" xr:uid="{989FD6FD-BB6B-4AB5-B997-A1CE8AE9DF93}"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5364" xr:uid="{3DC08620-1BDC-46E6-AF8B-81601E7534A2}"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5011&amp;sub_grp_id=5363" xr:uid="{F403392E-7B5B-4F99-A1C1-84BA18BF8AF4}"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5535" xr:uid="{7F52E01D-B02D-4642-92EA-A97FFD197BC1}"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5347" xr:uid="{E6A7D277-5A92-43F4-BD82-785F82BC77D8}"/>
+    <hyperlink ref="A26" r:id="rId25" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5505" xr:uid="{1DA16D9A-327A-40D5-AB2D-A43B8072ABDD}"/>
+    <hyperlink ref="A27" r:id="rId26" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5348" xr:uid="{42B32000-4F2F-461A-9A62-73FF2AFDB0BD}"/>
+    <hyperlink ref="A28" r:id="rId27" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5381" xr:uid="{8A8DF88F-1931-4257-AD90-BA7B5FAC1193}"/>
+    <hyperlink ref="A29" r:id="rId28" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5519" xr:uid="{B298F05D-7579-4012-A0B2-9E3B28DD4AF7}"/>
+    <hyperlink ref="A30" r:id="rId29" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5385" xr:uid="{270A5B08-DA79-4861-9986-B4570379321F}"/>
+    <hyperlink ref="A31" r:id="rId30" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5506" xr:uid="{B4D59764-5509-4C5D-BD66-2C92B799F344}"/>
+    <hyperlink ref="A32" r:id="rId31" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5384" xr:uid="{3C810A10-6971-4CE7-BAFE-746AF850AC26}"/>
+    <hyperlink ref="A33" r:id="rId32" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5379" xr:uid="{414D0B0E-BD6B-4B37-A486-9F0FC15389C1}"/>
+    <hyperlink ref="A34" r:id="rId33" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5380" xr:uid="{1343BB91-A075-4BE1-90FF-8A2D8BB206AE}"/>
+    <hyperlink ref="A35" r:id="rId34" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5351" xr:uid="{D8CD5ABE-7080-4EB4-BE94-79D72EC96DE6}"/>
+    <hyperlink ref="A36" r:id="rId35" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5352" xr:uid="{53EDBDD4-17B2-4903-AED2-D3B5EF1403DC}"/>
+    <hyperlink ref="A37" r:id="rId36" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5383" xr:uid="{D725D3E3-6B98-4FB4-B2D6-9CA4C3D2B651}"/>
+    <hyperlink ref="A38" r:id="rId37" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5349" xr:uid="{9471CAE1-460E-4E4F-9EE8-A848EDA53922}"/>
+    <hyperlink ref="A39" r:id="rId38" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5507" xr:uid="{A8826853-0B39-4B9F-8FE4-0E2A02252374}"/>
+    <hyperlink ref="A40" r:id="rId39" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5350" xr:uid="{6131A658-A72B-46F8-AD26-909DAE6287F3}"/>
+    <hyperlink ref="A41" r:id="rId40" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5631" xr:uid="{A6C79946-58C4-466D-9A17-B5B9EAAC4B53}"/>
+    <hyperlink ref="A42" r:id="rId41" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5593" xr:uid="{728D982D-AB00-4E25-BF44-DBF1EBE1191C}"/>
+    <hyperlink ref="A43" r:id="rId42" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5382" xr:uid="{99A5263A-4997-4442-876C-34FB4F649269}"/>
+    <hyperlink ref="A44" r:id="rId43" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5008&amp;sub_grp_id=5532" xr:uid="{4188911E-BCDF-4464-9E11-0273DE7BD92E}"/>
+    <hyperlink ref="A50" r:id="rId44" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5359" xr:uid="{86592DAA-BF9C-4995-A79E-CD5F77559EDB}"/>
+    <hyperlink ref="A45" r:id="rId45" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5513" xr:uid="{56585977-DC38-40D7-82F6-E41E4B10F969}"/>
+    <hyperlink ref="A46" r:id="rId46" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5582" xr:uid="{44CBE9F8-6F7B-4AC2-8F58-6D26CDD8B88D}"/>
+    <hyperlink ref="A47" r:id="rId47" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5358" xr:uid="{563A5D18-0501-4BD5-94BA-B548F49726A0}"/>
+    <hyperlink ref="A48" r:id="rId48" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5514" xr:uid="{6A1BC773-C9F4-4D78-8A87-2803E1A653FF}"/>
+    <hyperlink ref="A49" r:id="rId49" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5009&amp;sub_grp_id=5359" xr:uid="{B4136F20-13AC-4649-91B7-622294A79667}"/>
+    <hyperlink ref="A51" r:id="rId50" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5375" xr:uid="{B952D619-4B43-4113-9630-7941F815C2D1}"/>
+    <hyperlink ref="A52" r:id="rId51" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5377" xr:uid="{8BBF6F34-F142-4D24-90E4-DD1C4B57B18A}"/>
+    <hyperlink ref="A53" r:id="rId52" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5376" xr:uid="{F7A5B4C9-8F39-4595-9B97-F0786F6F6195}"/>
+    <hyperlink ref="A54" r:id="rId53" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5511" xr:uid="{C362C456-1AF1-41DD-BAB8-20F2AAA37DA3}"/>
+    <hyperlink ref="A55" r:id="rId54" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5013&amp;sub_grp_id=5378" xr:uid="{37886025-3D35-4F81-9447-91171F11DB8B}"/>
+    <hyperlink ref="A56" r:id="rId55" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5001&amp;sub_grp_id=5001" xr:uid="{5D7D0174-473E-4054-ADBF-0949DEA646BA}"/>
+    <hyperlink ref="A57" r:id="rId56" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5001&amp;sub_grp_id=5002" xr:uid="{CD7FF177-1C10-4AAD-B961-F47511FC475E}"/>
+    <hyperlink ref="A58" r:id="rId57" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5001&amp;sub_grp_id=5003" xr:uid="{63647BF4-BE3E-4B51-9FE3-06080FAC052A}"/>
+    <hyperlink ref="A59" r:id="rId58" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5611" xr:uid="{1566274F-C6FC-4A5D-B504-CAD63E11A0A4}"/>
+    <hyperlink ref="A60" r:id="rId59" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5373" xr:uid="{0DE01BCD-DC10-44C4-AF9E-34FB463C9A83}"/>
+    <hyperlink ref="A61" r:id="rId60" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5586" xr:uid="{B3F79EB5-FA92-493F-A5C2-3538C96CBD11}"/>
+    <hyperlink ref="A62" r:id="rId61" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5590" xr:uid="{56CA9535-DE85-4082-BB7E-F39CE6AEB29E}"/>
+    <hyperlink ref="A63" r:id="rId62" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5537" xr:uid="{4BFB5E64-2E6A-45AC-8BD5-DF746B1F06F1}"/>
+    <hyperlink ref="A64" r:id="rId63" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5538" xr:uid="{4AD93018-06CC-472F-8847-0B8334AE1AFF}"/>
+    <hyperlink ref="A65" r:id="rId64" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5371" xr:uid="{59911E56-BF0B-4E6A-B715-85A1B3FAD897}"/>
+    <hyperlink ref="A66" r:id="rId65" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5374" xr:uid="{33D00BC4-2F34-4D27-8ED0-5BC191D2687A}"/>
+    <hyperlink ref="A67" r:id="rId66" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5372" xr:uid="{0EC75D3B-C99D-4990-BFD3-3F329B07C55B}"/>
+    <hyperlink ref="A68" r:id="rId67" display="http://srweb-dmz-03.spring8.or.jp/cgi-bin/MDAQ/mdaq_signal_list.py?grp_id=5012&amp;sub_grp_id=5612" xr:uid="{5E31D1EE-3B77-449E-8B4D-FC7A9185A172}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <legacyDrawing r:id="rId69"/>
 </worksheet>
 </file>